--- a/src/test/resources/DataTest/CreateCus.xlsx
+++ b/src/test/resources/DataTest/CreateCus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HangDriver\project\Project_nopCommerce\src\test\resources\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C66247-B9DF-40A0-99C3-4068CE4499D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A022DE2-E6A6-40C4-8B6C-B1601EE553F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26ACBC9C-F053-40E2-988F-7AE70B99340C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26ACBC9C-F053-40E2-988F-7AE70B99340C}"/>
   </bookViews>
   <sheets>
     <sheet name="createACC" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>NamNguyen1833@gmail.com</t>
-  </si>
-  <si>
     <t>Hello123#</t>
   </si>
   <si>
@@ -82,13 +79,16 @@
   </si>
   <si>
     <t>Administrators</t>
+  </si>
+  <si>
+    <t>hanghuynh121@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +100,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,17 +151,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,7 +480,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,23 +527,23 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
